--- a/程序用_正式版_基础版/ElementsTrap.xlsx
+++ b/程序用_正式版_基础版/ElementsTrap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605CCA7B-DF61-4ECA-8A02-315FB964B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4804A9-5BD9-439A-A1D2-2F12A347D9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="870" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17025" yWindow="4380" windowWidth="20070" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsTrap" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
+    <author>86176</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -112,6 +113,33 @@
             <charset val="134"/>
           </rPr>
           <t>将报错</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{7A46BCB3-DAD3-4D1D-B55A-E4C53E025E76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>86176:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+E7  油桶 
+E8  毒桶 </t>
         </r>
       </text>
     </comment>
@@ -239,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -319,6 +347,16 @@
   </si>
   <si>
     <t>陷阱类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,8 +449,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +471,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -460,13 +511,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,9 +557,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,13 +878,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -889,6 +962,9 @@
         <f t="shared" ref="A5:A7" si="0">ROW(A5)-4</f>
         <v>1</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -907,6 +983,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -924,6 +1003,9 @@
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>

--- a/程序用_正式版_基础版/ElementsTrap.xlsx
+++ b/程序用_正式版_基础版/ElementsTrap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4804A9-5BD9-439A-A1D2-2F12A347D9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7226B64C-049A-424A-A1A2-0DAC5E43AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="4380" windowWidth="20070" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="930" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsTrap" sheetId="1" r:id="rId1"/>
@@ -293,14 +293,6 @@
     <t>备注（仅供参考用）</t>
   </si>
   <si>
-    <t>数值参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空陷阱</t>
   </si>
   <si>
@@ -311,14 +303,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,6 +341,22 @@
   </si>
   <si>
     <t>E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对玩家伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对怪物伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamagePlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageEnemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +878,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -896,19 +896,19 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -916,19 +916,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -942,16 +942,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>6</v>
@@ -963,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -996,7 +996,7 @@
         <v>1.5</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/程序用_正式版_基础版/ElementsTrap.xlsx
+++ b/程序用_正式版_基础版/ElementsTrap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7226B64C-049A-424A-A1A2-0DAC5E43AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6E067-9916-4C71-9169-AFD91D48A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="930" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="3690" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsTrap" sheetId="1" r:id="rId1"/>
@@ -334,16 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对玩家伤害倍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,6 +348,17 @@
   <si>
     <t>DamageEnemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E201</t>
   </si>
 </sst>
 </file>
@@ -878,7 +879,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -902,10 +903,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -948,10 +949,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>6</v>
@@ -963,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -984,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1005,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>

--- a/程序用_正式版_基础版/ElementsTrap.xlsx
+++ b/程序用_正式版_基础版/ElementsTrap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6E067-9916-4C71-9169-AFD91D48A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C5689-307F-45D5-A792-19E5EB72386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="3690" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsTrap" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -275,10 +275,6 @@
     <t>int32</t>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChapterID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,9 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>备注（仅供参考用）</t>
   </si>
   <si>
@@ -314,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,7 +316,7 @@
   </si>
   <si>
     <t>TableName: "ElementsTrap" Package: "neogame"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>陷阱类型</t>
@@ -365,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,13 +369,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -532,30 +514,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1">
@@ -876,149 +855,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A7" si="0">ROW(A5)-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="E5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
         <v>1.5</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1043,8 +1002,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/程序用_正式版_基础版/ElementsTrap.xlsx
+++ b/程序用_正式版_基础版/ElementsTrap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C5689-307F-45D5-A792-19E5EB72386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2377A774-90A5-4423-946B-F25B72A4CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,7 +858,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/程序用_正式版_基础版/ElementsTrap.xlsx
+++ b/程序用_正式版_基础版/ElementsTrap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2377A774-90A5-4423-946B-F25B72A4CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F531D-9D7D-4895-B633-85ABEA21A39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="810" windowWidth="36795" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsTrap" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,6 @@
     <t>int32</t>
   </si>
   <si>
-    <t>ChapterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>章节ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,6 +344,10 @@
   </si>
   <si>
     <t>E201</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -872,19 +872,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,16 +892,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,19 +911,19 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -959,7 +959,7 @@
         <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/程序用_正式版_基础版/ElementsTrap.xlsx
+++ b/程序用_正式版_基础版/ElementsTrap.xlsx
@@ -1,46 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F531D-9D7D-4895-B633-85ABEA21A39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="810" windowWidth="36795" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsTrap" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>86176</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +29,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -58,73 +38,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>有重复</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>将报错</t>
+如果ID有重复, 将报错</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{7A46BCB3-DAD3-4D1D-B55A-E4C53E025E76}">
+    <comment ref="B4" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>86176:</t>
@@ -132,9 +59,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -148,13 +73,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +87,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -172,53 +96,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>普通数据导出表的名称</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不会被用于任何数据输出名命名</t>
+普通数据导出表的名称, 不会被用于任何数据输出名命名</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -226,9 +117,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -236,15 +125,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Davy:</t>
@@ -252,9 +139,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -269,105 +154,261 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DamagePlayer</t>
+  </si>
+  <si>
+    <t>DamageEnemy</t>
+  </si>
+  <si>
+    <t>#Detail</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>ElementType</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
   <si>
-    <t>int32</t>
-  </si>
-  <si>
     <t>章节ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱类型</t>
+  </si>
+  <si>
+    <t>对玩家伤害倍率</t>
+  </si>
+  <si>
+    <t>对怪物伤害倍率</t>
   </si>
   <si>
     <t>备注（仅供参考用）</t>
   </si>
   <si>
+    <t>E000</t>
+  </si>
+  <si>
     <t>空陷阱</t>
   </si>
   <si>
+    <t>E200</t>
+  </si>
+  <si>
     <t>油桶</t>
   </si>
   <si>
+    <t>E201</t>
+  </si>
+  <si>
     <t>毒桶</t>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "ElementsTrap" Package: "neogame"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对玩家伤害倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对怪物伤害倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamagePlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageEnemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E201</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,73 +416,27 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,10 +452,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -509,12 +685,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -522,37 +922,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="13" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -601,7 +1044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -634,26 +1077,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -686,23 +1112,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -844,24 +1253,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -870,29 +1274,29 @@
     <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -901,115 +1305,119 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" ref="A5:A7" si="0">ROW(A5)-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.5</v>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:5">
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>